--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_FileManagement.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_FileManagement.xlsx
@@ -1072,9 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_FileManagement.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_FileManagement.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Connect Device with WIFI</t>
-  </si>
-  <si>
-    <t>Controls And Appearance -JS</t>
   </si>
   <si>
     <t>Change Start page</t>
@@ -129,6 +126,283 @@
   <si>
     <t>Note: Run this test with Javascript object.
 Device File Transfer to FTP-large file(4mb)</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0306
+};
+validate4
+{
+validate_Result=Received
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0375
+};
+validate4
+{
+validate_Result=Received
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0360
+};
+validate4
+{
+validate_Result=Received
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0356
+};
+validate4
+{
+validate_Result=Exception
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0355
+};
+validate4
+{
+validate_Result=Received
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0318
+};
+validate4
+{
+validate_Result=Received
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0309
+};
+validate4
+{
+validate_Result=Sent
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0308
+};
+validate4
+{
+validate_Result=Received
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0307
+};
+validate4
+{
+validate_Result=Sent
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0310
+};
+validate4
+{
+validate_Result=Moved
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0361
+};
+validate4
+{
+validate_Result=Exists
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0376
+};
+validate4
+{
+validate_Result=Sent
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0377
+};
+validate4
+{
+validate_Result=Received
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0378
+};
+validate4
+{
+validate_Result=Sent
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
+};
+validate3
+{
+validate_Text_Exists=VT187-0365
+};
+validate4
+{
+validate_PageTitle=FileTransfer Navigate
+};
+validate5
+{
+validate_Text_Exists=Received
+};</t>
+  </si>
+  <si>
+    <t>EBRE22_FileManagement</t>
   </si>
   <si>
     <t>wait(2);
@@ -139,7 +413,7 @@
 SelectTestToRun(VT187_0306_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
   </si>
   <si>
@@ -151,7 +425,7 @@
 SelectTestToRun(VT187_0307_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
   </si>
   <si>
@@ -163,7 +437,7 @@
 SelectTestToRun(VT187_0308_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
   </si>
   <si>
@@ -175,7 +449,7 @@
 SelectTestToRun(VT187_0309_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
   </si>
   <si>
@@ -187,7 +461,7 @@
 SelectTestToRun(VT187_0310_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
   </si>
   <si>
@@ -199,7 +473,7 @@
 SelectTestToRun(VT187_0318_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
   </si>
   <si>
@@ -211,7 +485,7 @@
 SelectTestToRun(VT187_0355_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
   </si>
   <si>
@@ -223,7 +497,7 @@
 SelectTestToRun(VT187_0356_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
   </si>
   <si>
@@ -235,7 +509,7 @@
 SelectTestToRun(VT187_0360_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
   </si>
   <si>
@@ -247,8 +521,21 @@
 SelectTestToRun(VT187_0361_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
 validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(filemanagement_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0365_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(20);
+validate4;
+validate5;</t>
   </si>
   <si>
     <t>wait(2);
@@ -259,7 +546,19 @@
 SelectTestToRun(VT187_0375_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(20);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(filemanagement_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT187_0376_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wait(40);
 validate4;</t>
   </si>
   <si>
@@ -271,282 +570,8 @@
 SelectTestToRun(VT187_0377_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(10);
+wait(40);
 validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0306
-};
-validate4
-{
-validate_Result=Received
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0375
-};
-validate4
-{
-validate_Result=Received
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0360
-};
-validate4
-{
-validate_Result=Received
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0356
-};
-validate4
-{
-validate_Result=Exception
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0355
-};
-validate4
-{
-validate_Result=Received
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0318
-};
-validate4
-{
-validate_Result=Received
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0309
-};
-validate4
-{
-validate_Result=Sent
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0308
-};
-validate4
-{
-validate_Result=Received
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0307
-};
-validate4
-{
-validate_Result=Sent
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0310
-};
-validate4
-{
-validate_Result=Moved
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0361
-};
-validate4
-{
-validate_Result=Exists
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0376
-};
-validate4
-{
-validate_Result=Sent
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0377
-};
-validate4
-{
-validate_Result=Received
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0378
-};
-validate4
-{
-validate_Result=Sent
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=PB and RE2.2 Semi Auto Frame Work : FileManagement
-};
-validate3
-{
-validate_Text_Exists=VT187-0365
-};
-validate4
-{
-validate_PageTitle=FileTransfer Navigate
-};
-validate5
-{
-validate_Text_Exists=Received
-};</t>
   </si>
   <si>
     <t>wait(2);
@@ -557,33 +582,8 @@
 SelectTestToRun(VT187_0378_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(15);
+wait(40);
 validate4;</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(filemanagement_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0376_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-wait(15);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(filemanagement_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT187_0365_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(10);
-validate4;
-validate5;</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1126,19 +1128,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1154,23 +1156,21 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1183,23 +1183,21 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1212,23 +1210,21 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1241,23 +1237,21 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1270,23 +1264,21 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1299,23 +1291,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1328,23 +1318,21 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1357,23 +1345,21 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1386,23 +1372,21 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1415,23 +1399,21 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1444,23 +1426,21 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1473,23 +1453,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1502,23 +1480,21 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1531,23 +1507,21 @@
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1560,23 +1534,21 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C17" s="14"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_FileManagement.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_FileManagement.xlsx
@@ -1555,7 +1555,6 @@
       <c r="K17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
